--- a/noname.xlsx
+++ b/noname.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>ВЕДОМОСТЬ УЧЕТА БРАКА</t>
   </si>
@@ -182,13 +182,25 @@
   </si>
   <si>
     <t>Видеокассеты</t>
+  </si>
+  <si>
+    <t>Численность населения</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>Численность (млн чел.)</t>
+  </si>
+  <si>
+    <t>―</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +234,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,23 +287,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,23 +324,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,11 +473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167320960"/>
-        <c:axId val="167332096"/>
+        <c:axId val="231217792"/>
+        <c:axId val="231220352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167320960"/>
+        <c:axId val="231217792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167332096"/>
+        <c:crossAx val="231220352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -472,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167332096"/>
+        <c:axId val="231220352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167320960"/>
+        <c:crossAx val="231217792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -591,12 +613,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="pyramid"/>
-        <c:axId val="238291968"/>
-        <c:axId val="247612160"/>
+        <c:axId val="151295104"/>
+        <c:axId val="151296640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="238291968"/>
+        <c:axId val="151295104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247612160"/>
+        <c:crossAx val="151296640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247612160"/>
+        <c:axId val="151296640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238291968"/>
+        <c:crossAx val="151295104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -638,6 +660,180 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Численность (млн чел.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:forward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="418735232"/>
+        <c:axId val="418737152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418735232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418737152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418737152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="151"/>
+          <c:min val="126"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418735232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -709,6 +905,86 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.76721</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68863</cdr:x>
+      <cdr:y>0.76923</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Прямая соединительная линия 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="-19049" y="3609975"/>
+          <a:ext cx="6172200" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="38100"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,327 +1288,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>245</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>0.1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>3265</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <f>D4*E4</f>
         <v>326.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>289</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>0.08</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>4568</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F15" si="0">D5*E5</f>
         <v>365.44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>356</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>0.05</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>4500</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>657</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0.11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>6804</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>748.44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>568</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>0.09</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>6759</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>608.30999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>849</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>0.12</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>4673</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>560.76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>409</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>0.21</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>5677</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>1192.1699999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>386</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>0.46</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>6836</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>3144.56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>598</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>0.06</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>3534</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>212.04</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>4569</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>0.03</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>5789</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>173.67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>239</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>0.02</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>4673</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>93.460000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>590</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>0.01</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>6785</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>67.849999999999994</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="1">
         <f>MAX(F4,F15)</f>
         <v>326.5</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="1">
         <f>MIN(F4,F15)</f>
         <v>67.849999999999994</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="1">
         <f>AVERAGE(F4,F15)</f>
         <v>197.17500000000001</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3">
         <f>AVERAGE(D4,D15)</f>
         <v>5.5E-2</v>
       </c>
@@ -1355,277 +1631,277 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="18.42578125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="6">
         <v>4200</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="6">
         <v>240</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="6">
         <v>29</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="6">
         <f>C4+D4</f>
         <v>269</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="6">
         <f>B4*E4</f>
         <v>1129800</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="6">
         <v>9500</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="6">
         <v>103</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="6">
         <v>104</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="6">
         <f t="shared" ref="E5:E11" si="0">C5+D5</f>
         <v>207</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F11" si="1">B5*E5</f>
         <v>1966500</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="6">
         <v>6250</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="6">
         <v>76</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="6">
         <v>45</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>756250</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="6">
         <v>12750</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="6">
         <v>17</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>344250</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="6">
         <v>13790</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="6">
         <v>57</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>1406580</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="6">
         <v>4620</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="6">
         <v>104</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="6">
         <v>120</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>1034880</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="6">
         <v>450</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="6">
         <v>72</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="6">
         <v>55</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>57150</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="6">
         <v>120</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="6">
         <v>516</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="6">
         <v>247</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>91560</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <f>SUM(F4:F11)</f>
         <v>6786970</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13">
+      <c r="B15" s="12"/>
+      <c r="C15" s="6">
         <f>MAX(C4:C11)</f>
         <v>516</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="6">
         <f>MAX(D4:D11)</f>
         <v>247</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="6">
         <f>MAX(F4:F11)</f>
         <v>1966500</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13">
+      <c r="B16" s="12"/>
+      <c r="C16" s="6">
         <f>MIN(C4:C11)</f>
         <v>10</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="6">
         <f>MIN(D4:D11)</f>
         <v>17</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="6">
         <f>MIN(F4:F11)</f>
         <v>57150</v>
       </c>
@@ -1654,12 +1930,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>1970</v>
+      </c>
+      <c r="C3">
+        <v>1979</v>
+      </c>
+      <c r="D3">
+        <v>1988</v>
+      </c>
+      <c r="E3">
+        <v>1997</v>
+      </c>
+      <c r="F3">
+        <v>2006</v>
+      </c>
+      <c r="G3">
+        <v>2015</v>
+      </c>
+      <c r="H3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>130.1</v>
+      </c>
+      <c r="C4">
+        <v>137.6</v>
+      </c>
+      <c r="D4">
+        <v>147.4</v>
+      </c>
+      <c r="E4">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="F4">
+        <v>148.1</v>
+      </c>
+      <c r="G4">
+        <v>140.1</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/noname.xlsx
+++ b/noname.xlsx
@@ -1,26 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sisadmin 2\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780D6BD-B879-45A5-9B1F-D9183E743400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="8.1" sheetId="4" r:id="rId1"/>
+    <sheet name="8.2" sheetId="5" r:id="rId2"/>
+    <sheet name="8.3" sheetId="1" r:id="rId3"/>
+    <sheet name="8.4" sheetId="2" r:id="rId4"/>
+    <sheet name="9.1" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$F$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$B$4:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'8.1'!$A$3:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'8.3'!$A$3:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'8.4'!$B$4:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>ВЕДОМОСТЬ УЧЕТА БРАКА</t>
   </si>
@@ -194,13 +211,110 @@
   </si>
   <si>
     <t>―</t>
+  </si>
+  <si>
+    <t>Финансовая сводка за неделю (тыс. р.)</t>
+  </si>
+  <si>
+    <t>День недели</t>
+  </si>
+  <si>
+    <t>Доход</t>
+  </si>
+  <si>
+    <t>Расход</t>
+  </si>
+  <si>
+    <t>Финансовый результат</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Ср знач</t>
+  </si>
+  <si>
+    <t>Общий финансовый результат за неделю</t>
+  </si>
+  <si>
+    <t>Анализ продаж</t>
+  </si>
+  <si>
+    <t>№п/п</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Цена, р.</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Сумма, р.</t>
+  </si>
+  <si>
+    <t>Прибор контроля и управления С2000M</t>
+  </si>
+  <si>
+    <t>Релейный блок, вер. 1.30 С2000-СП1</t>
+  </si>
+  <si>
+    <t>Прибор приемно-контрольный «Сигнал-20М»</t>
+  </si>
+  <si>
+    <t>РИП-12</t>
+  </si>
+  <si>
+    <t>Контроллер двухпроводной</t>
+  </si>
+  <si>
+    <t>Извещатель пожарный дымовой</t>
+  </si>
+  <si>
+    <t>Оповещатель звуковой (сирена) «Маяк 24-3М»</t>
+  </si>
+  <si>
+    <t>Оповещатель световой «ВЫХОД»</t>
+  </si>
+  <si>
+    <t>Всего:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальная сумма покупки
+</t>
+  </si>
+  <si>
+    <t>Максимальная сумма покупки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,13 +356,41 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -284,10 +426,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,6 +444,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -329,12 +475,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,12 +509,326 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8.1'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Вторник</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Среда</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Суббота</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Воскресенье</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.1'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00_ ;[Red]\-#\ ##0.00\ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>959.55999999999949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1158.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1681.1000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0D0-437A-93CB-20035C9DE649}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2079239663"/>
+        <c:axId val="1856975775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2079239663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1856975775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1856975775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00_ ;[Red]\-#\ ##0.00\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2079239663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -374,7 +855,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$4:$A$15</c:f>
+              <c:f>'8.3'!$A$4:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -418,7 +899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$4:$F$15</c:f>
+              <c:f>'8.3'!$F$4:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -462,6 +943,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4CC-40DF-9CFB-EF394E3DA04E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -471,7 +957,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="231217792"/>
         <c:axId val="231220352"/>
@@ -483,6 +968,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -522,8 +1008,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -563,7 +1049,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист2!$A$4:$A$11</c:f>
+              <c:f>'8.4'!$A$4:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -583,7 +1069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$F$4:$F$11</c:f>
+              <c:f>'8.4'!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -602,6 +1088,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BD6-427E-B29B-275B4980BCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -624,6 +1115,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -663,8 +1155,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -678,7 +1170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -693,7 +1184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$A$4</c:f>
+              <c:f>'9.1'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -712,7 +1203,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Лист3!$B$3:$H$3</c:f>
+              <c:f>'9.1'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -742,7 +1233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист3!$B$4:$G$4</c:f>
+              <c:f>'9.1'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -767,6 +1258,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0617-45F3-863E-30847E8E2474}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -821,7 +1317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -837,24 +1332,575 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF89A3B-001D-4684-9A37-3C6EC71375D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -877,19 +1923,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -911,20 +1963,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -943,6 +2001,47 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -955,7 +2054,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="2" name="Прямая соединительная линия 1"/>
+        <cdr:cNvPr id="2" name="Прямая соединительная линия 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184FD597-B8A3-43B8-B77D-98ED1B0FAF69}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -1030,7 +2135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,9 +2168,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,6 +2220,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1273,7 +2412,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AFBD64-351A-4AEC-AD0D-DDFA789663F9}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3245.2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3628.5</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4-C4</f>
+        <v>-383.30000000000018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4572.5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>5320.5</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:D10" si="0">B5-C5</f>
+        <v>-748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="18">
+        <v>6251.66</v>
+      </c>
+      <c r="C6" s="18">
+        <v>5292.1</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>959.55999999999949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2125.1999999999998</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3824.3</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>-1699.1000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3896.6</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3020.1</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>876.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="18">
+        <v>5420.3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4262.1000000000004</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>1158.1999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="18">
+        <v>6050.6</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4369.5</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
+        <v>1681.1000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="18">
+        <f>AVERAGE(B4:B10)</f>
+        <v>4508.8657142857137</v>
+      </c>
+      <c r="C11" s="18">
+        <f>AVERAGE(C4:C10)</f>
+        <v>4245.3</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22">
+        <f>SUM(D4:D10)</f>
+        <v>1844.9599999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D11" xr:uid="{AE05B2E3-A363-4D80-A193-54B18B547269}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="greaterThan" val="4200"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C02C4-9041-4151-8F03-A2401AC41284}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="26">
+        <v>820</v>
+      </c>
+      <c r="D4" s="24">
+        <v>150</v>
+      </c>
+      <c r="E4" s="24">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1530</v>
+      </c>
+      <c r="D5" s="24">
+        <v>60</v>
+      </c>
+      <c r="E5" s="24">
+        <v>91800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="24">
+        <v>25</v>
+      </c>
+      <c r="E6" s="24">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="26">
+        <v>250</v>
+      </c>
+      <c r="D7" s="24">
+        <v>40</v>
+      </c>
+      <c r="E7" s="24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="26">
+        <v>125</v>
+      </c>
+      <c r="D8" s="24">
+        <v>80</v>
+      </c>
+      <c r="E8" s="24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="26">
+        <v>80</v>
+      </c>
+      <c r="D9" s="24">
+        <v>50</v>
+      </c>
+      <c r="E9" s="24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="26">
+        <v>120</v>
+      </c>
+      <c r="D10" s="24">
+        <v>120</v>
+      </c>
+      <c r="E10" s="24">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>8</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="26">
+        <v>50</v>
+      </c>
+      <c r="D11" s="24">
+        <v>40</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="24">
+        <v>292700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="24">
+        <v>123000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1288,14 +2833,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1570,44 +3115,44 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="1">
         <f>MAX(F4,F15)</f>
         <v>326.5</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1">
         <f>MIN(F4,F15)</f>
         <v>67.849999999999994</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="1">
         <f>AVERAGE(F4,F15)</f>
         <v>197.17500000000001</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3">
         <f>AVERAGE(D4,D15)</f>
         <v>5.5E-2</v>
@@ -1626,8 +3171,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1642,34 +3187,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +3224,7 @@
       <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1871,10 +3416,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6">
         <f>MAX(C4:C11)</f>
         <v>516</v>
@@ -1889,10 +3434,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6">
         <f>MIN(C4:C11)</f>
         <v>10</v>
@@ -1907,7 +3452,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:B12">
+  <autoFilter ref="B4:B12" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="greaterThan" val="9300"/>
@@ -1928,11 +3473,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1942,16 +3487,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2001,7 +3546,7 @@
       <c r="G4">
         <v>140.1</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="8" t="s">
         <v>57</v>
       </c>
     </row>

--- a/noname.xlsx
+++ b/noname.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sisadmin 2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780D6BD-B879-45A5-9B1F-D9183E743400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B1B5E-2A87-432E-9FEF-7DBC4BC4B7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.1" sheetId="4" r:id="rId1"/>
     <sheet name="8.2" sheetId="5" r:id="rId2"/>
     <sheet name="8.3" sheetId="1" r:id="rId3"/>
     <sheet name="8.4" sheetId="2" r:id="rId4"/>
-    <sheet name="9.1" sheetId="3" r:id="rId5"/>
+    <sheet name="9.1-9.3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'8.1'!$A$3:$D$11</definedName>
@@ -448,14 +448,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -474,29 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1184,7 +1184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9.1'!$A$4</c:f>
+              <c:f>'9.1-9.3'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1203,7 +1203,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'9.1'!$B$3:$H$3</c:f>
+              <c:f>'9.1-9.3'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1233,7 +1233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9.1'!$B$4:$G$4</c:f>
+              <c:f>'9.1-9.3'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2004,16 +2004,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2427,24 +2427,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2452,13 +2452,13 @@
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="9">
         <v>3245.2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="9">
         <v>3628.5</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="11">
         <f>B4-C4</f>
         <v>-383.30000000000018</v>
       </c>
@@ -2467,13 +2467,13 @@
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="9">
         <v>4572.5</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="9">
         <v>5320.5</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="11">
         <f t="shared" ref="D5:D10" si="0">B5-C5</f>
         <v>-748</v>
       </c>
@@ -2482,13 +2482,13 @@
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="9">
         <v>6251.66</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="9">
         <v>5292.1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>959.55999999999949</v>
       </c>
@@ -2497,13 +2497,13 @@
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="9">
         <v>2125.1999999999998</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="9">
         <v>3824.3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>-1699.1000000000004</v>
       </c>
@@ -2512,13 +2512,13 @@
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="9">
         <v>3896.6</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="9">
         <v>3020.1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>876.5</v>
       </c>
@@ -2527,13 +2527,13 @@
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="9">
         <v>5420.3</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="9">
         <v>4262.1000000000004</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>1158.1999999999998</v>
       </c>
@@ -2542,13 +2542,13 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="9">
         <v>6050.6</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="9">
         <v>4369.5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>1681.1000000000004</v>
       </c>
@@ -2557,23 +2557,23 @@
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="9">
         <f>AVERAGE(B4:B10)</f>
         <v>4508.8657142857137</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="9">
         <f>AVERAGE(C4:C10)</f>
         <v>4245.3</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="22">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="12">
         <f>SUM(D4:D10)</f>
         <v>1844.9599999999991</v>
       </c>
@@ -2601,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C02C4-9041-4151-8F03-A2401AC41284}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2613,197 +2613,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="16">
         <v>820</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="14">
         <v>150</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="14">
         <v>123000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="16">
         <v>1530</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="14">
         <v>60</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="14">
         <v>91800</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="16">
         <v>1500</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="14">
         <v>25</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="14">
         <v>37500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="16">
         <v>250</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="14">
         <v>40</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="14">
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="16">
         <v>125</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="14">
         <v>80</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="14">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="16">
         <v>80</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="14">
         <v>50</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="14">
         <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="16">
         <v>120</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="14">
         <v>120</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="14">
         <v>14400</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="16">
         <v>50</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="14">
         <v>40</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="14">
         <v>292700</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="24">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="24">
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="14">
         <v>123000</v>
       </c>
     </row>
@@ -2833,14 +2833,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3115,44 +3115,44 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1">
         <f>MAX(F4,F15)</f>
         <v>326.5</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1">
         <f>MIN(F4,F15)</f>
         <v>67.849999999999994</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1">
         <f>AVERAGE(F4,F15)</f>
         <v>197.17500000000001</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="3">
         <f>AVERAGE(D4,D15)</f>
         <v>5.5E-2</v>
@@ -3187,34 +3187,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -3416,10 +3416,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="6">
         <f>MAX(C4:C11)</f>
         <v>516</v>
@@ -3434,10 +3434,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="6">
         <f>MIN(C4:C11)</f>
         <v>10</v>
@@ -3477,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,16 +3487,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
